--- a/201006上板.xlsx
+++ b/201006上板.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7CCDE-8A36-4E09-8DE1-2E4012E4C8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BD8C93-0883-4BED-8678-7AC8C6386F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0601" sheetId="1" r:id="rId1"/>
+    <sheet name="0602" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -306,6 +307,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>55989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D6852-66B1-45E8-A3F5-39CCC9799174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>65513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106A5A1B-B455-401F-B1D1-92DD455FF4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9410700"/>
+          <a:ext cx="18285714" cy="9295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>27395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90CD953-8F26-48E4-9748-B8E63CE47D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19002375"/>
+          <a:ext cx="18285714" cy="9438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -571,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
@@ -582,4 +720,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D0561-BCEF-4D39-9DD2-C8491D2DC0BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/201006上板.xlsx
+++ b/201006上板.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BD8C93-0883-4BED-8678-7AC8C6386F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216165D6-B5F1-4415-B567-3C061EA45046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0601" sheetId="1" r:id="rId1"/>
     <sheet name="0602" sheetId="2" r:id="rId2"/>
+    <sheet name="0603" sheetId="3" r:id="rId3"/>
+    <sheet name="0604" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +25,39 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>首板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正源股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安饮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪马股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,6 +469,324 @@
         <a:xfrm>
           <a:off x="0" y="19002375"/>
           <a:ext cx="18285714" cy="9438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>435866</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE88A06-BAC3-4A0B-BD7E-A12F7F97D19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18266666" cy="6733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>350152</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>27734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E374504-1CCD-4A1C-8231-C73F87CEE315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6877050"/>
+          <a:ext cx="18180952" cy="6723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>46782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53B8D26-612C-492D-9476-960D75010917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13754100"/>
+          <a:ext cx="18285714" cy="6742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>27734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CEB832-6674-40C0-87FF-E85489441628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20631150"/>
+          <a:ext cx="18285714" cy="6723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>407295</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F50CA6-4110-465F-95C7-7D37B3DC6204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18238095" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>407295</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>56283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AE79D2-7893-4141-90AB-27C69B6AF8E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7239000"/>
+          <a:ext cx="18238095" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>416819</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>75331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851D8582-B2D3-46E1-9A4C-2D0F0889680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14478000"/>
+          <a:ext cx="18247619" cy="6952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -726,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D0561-BCEF-4D39-9DD2-C8491D2DC0BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -737,4 +1091,79 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32460C7-B2BD-4199-B0B5-5F45A2F0217B}">
+  <dimension ref="A154:C158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>600918</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>600321</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAE408C-4078-4EEA-AA6B-229E73B4234F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/201006上板.xlsx
+++ b/201006上板.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216165D6-B5F1-4415-B567-3C061EA45046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62A9E3-BC83-4BE0-9B63-538D16A2A0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0601" sheetId="1" r:id="rId1"/>
     <sheet name="0602" sheetId="2" r:id="rId2"/>
     <sheet name="0603" sheetId="3" r:id="rId3"/>
     <sheet name="0604" sheetId="4" r:id="rId4"/>
+    <sheet name="0605" sheetId="5" r:id="rId5"/>
+    <sheet name="0606" sheetId="6" r:id="rId6"/>
+    <sheet name="0607" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>首板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +58,62 @@
   </si>
   <si>
     <t>迪马股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科力远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原内配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张江高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宁物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天华超净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺网科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆易创新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +846,373 @@
         <a:xfrm>
           <a:off x="0" y="14478000"/>
           <a:ext cx="18247619" cy="6952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93FECDD-7544-4EA9-AC85-E32369F969D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>359676</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4E082B-25B5-428E-8FF3-947C4B402D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7239000"/>
+          <a:ext cx="18190476" cy="6857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>8642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9615D7FD-16A8-4EF5-94B3-02AA95DCD360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14478000"/>
+          <a:ext cx="18285714" cy="7066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D578AC-2CB9-4343-BD1D-4AEF836431CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18257143" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>416819</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>103925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E756CBDF-98CB-45DC-845F-A312B40CA9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7058025"/>
+          <a:ext cx="18247619" cy="6800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5D2A17-07AB-4538-AFAE-1ABA6A242B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>46759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D840C5B4-0901-43ED-B899-9FDC50008CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7058025"/>
+          <a:ext cx="18285714" cy="6923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>445390</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>75331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85817018-BA85-42F6-B465-95A620D17AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14297025"/>
+          <a:ext cx="18276190" cy="6952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAE408C-4078-4EEA-AA6B-229E73B4234F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -1166,4 +1592,115 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD73993-7288-4EAE-A52A-EDEE67684D1C}">
+  <dimension ref="A121:B127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82463A35-9658-449C-9C52-0A8E3C5A52B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E45DAE9-A56B-484F-B303-A7806CA53093}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/201006上板.xlsx
+++ b/201006上板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62A9E3-BC83-4BE0-9B63-538D16A2A0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75323EF-778E-41AF-ABAB-727530AF7C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="1740" windowWidth="17580" windowHeight="13260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0601" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="0605" sheetId="5" r:id="rId5"/>
     <sheet name="0606" sheetId="6" r:id="rId6"/>
     <sheet name="0607" sheetId="7" r:id="rId7"/>
+    <sheet name="0608" sheetId="8" r:id="rId8"/>
+    <sheet name="0609" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1213,6 +1215,192 @@
         <a:xfrm>
           <a:off x="0" y="14297025"/>
           <a:ext cx="18276190" cy="6952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>445390</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC725C2E-AB12-4D9E-B216-A7BEBF1DCCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18276190" cy="6580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>170614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D123FB-CA74-43E9-962F-0CEFEF31B634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6696075"/>
+          <a:ext cx="18285714" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF57860-77F2-49C9-AC49-41598F65FD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>113426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196209F4-B4B2-419A-A3F0-B399A21A4869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7058025"/>
+          <a:ext cx="18285714" cy="6990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E45DAE9-A56B-484F-B303-A7806CA53093}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -1703,4 +1891,38 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDB63C-7EEB-4433-824D-F4FA81A4E0AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B464495-A39F-4518-AA63-DAE60998E9FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/201006上板.xlsx
+++ b/201006上板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75323EF-778E-41AF-ABAB-727530AF7C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0E343E-B676-4F1C-B4D4-2D2ECE4FA6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="1740" windowWidth="17580" windowHeight="13260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0601" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="0607" sheetId="7" r:id="rId7"/>
     <sheet name="0608" sheetId="8" r:id="rId8"/>
     <sheet name="0609" sheetId="9" r:id="rId9"/>
+    <sheet name="0615" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -393,6 +394,143 @@
         <a:xfrm>
           <a:off x="0" y="30584775"/>
           <a:ext cx="18285714" cy="7380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>388247</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACB026E-722D-439E-AE47-DF71E15A3697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18219047" cy="7171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>445390</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>18120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72883866-14C3-4243-8982-DB54E1056327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7419975"/>
+          <a:ext cx="18276190" cy="7438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>56238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4CF7D3-2D1C-44F1-AC23-91D05F0F869C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15020925"/>
+          <a:ext cx="18285714" cy="7295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,6 +1828,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB4F1DA-49E5-48D3-9745-DC3259DB505C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D0561-BCEF-4D39-9DD2-C8491D2DC0BD}">
   <dimension ref="A1"/>
@@ -1880,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E45DAE9-A56B-484F-B303-A7806CA53093}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -1897,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDB63C-7EEB-4433-824D-F4FA81A4E0AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -1914,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B464495-A39F-4518-AA63-DAE60998E9FB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
